--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cd177-Pecam1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cd177-Pecam1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>3.926606666666666</v>
+        <v>13.06236233333333</v>
       </c>
       <c r="H2">
-        <v>11.77982</v>
+        <v>39.187087</v>
       </c>
       <c r="I2">
-        <v>0.6634356070430003</v>
+        <v>0.7564485761176161</v>
       </c>
       <c r="J2">
-        <v>0.6634356070430003</v>
+        <v>0.7564485761176162</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>442.844055</v>
+        <v>383.075592</v>
       </c>
       <c r="N2">
-        <v>885.6881100000001</v>
+        <v>766.1511840000001</v>
       </c>
       <c r="O2">
-        <v>0.5956080271087346</v>
+        <v>0.9621018533726157</v>
       </c>
       <c r="P2">
-        <v>0.4963061580695479</v>
+        <v>0.9473455908456537</v>
       </c>
       <c r="Q2">
-        <v>1738.8744186567</v>
+        <v>5003.872183760168</v>
       </c>
       <c r="R2">
-        <v>10433.2465119402</v>
+        <v>30023.23310256101</v>
       </c>
       <c r="S2">
-        <v>0.3951475730245672</v>
+        <v>0.7277805770638346</v>
       </c>
       <c r="T2">
-        <v>0.3292671772580498</v>
+        <v>0.7166182232864966</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>3.926606666666666</v>
+        <v>13.06236233333333</v>
       </c>
       <c r="H3">
-        <v>11.77982</v>
+        <v>39.187087</v>
       </c>
       <c r="I3">
-        <v>0.6634356070430003</v>
+        <v>0.7564485761176161</v>
       </c>
       <c r="J3">
-        <v>0.6634356070430003</v>
+        <v>0.7564485761176162</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>2.568168333333333</v>
       </c>
       <c r="N3">
-        <v>7.704504999999999</v>
+        <v>7.704505</v>
       </c>
       <c r="O3">
-        <v>0.003454086505236687</v>
+        <v>0.006450005076994989</v>
       </c>
       <c r="P3">
-        <v>0.004317313547742694</v>
+        <v>0.009526616931258692</v>
       </c>
       <c r="Q3">
-        <v>10.08418689878889</v>
+        <v>33.54634530299278</v>
       </c>
       <c r="R3">
-        <v>90.75768208909999</v>
+        <v>301.917107726935</v>
       </c>
       <c r="S3">
-        <v>0.002291563977380737</v>
+        <v>0.004879097156444254</v>
       </c>
       <c r="T3">
-        <v>0.002864259534341643</v>
+        <v>0.007206395812868612</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3.926606666666666</v>
+        <v>13.06236233333333</v>
       </c>
       <c r="H4">
-        <v>11.77982</v>
+        <v>39.187087</v>
       </c>
       <c r="I4">
-        <v>0.6634356070430003</v>
+        <v>0.7564485761176161</v>
       </c>
       <c r="J4">
-        <v>0.6634356070430003</v>
+        <v>0.7564485761176162</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.891101666666666</v>
+        <v>3.820281</v>
       </c>
       <c r="N4">
-        <v>11.673305</v>
+        <v>11.460843</v>
       </c>
       <c r="O4">
-        <v>0.005233380375768716</v>
+        <v>0.009594710566953034</v>
       </c>
       <c r="P4">
-        <v>0.006541279137781406</v>
+        <v>0.0141713271612255</v>
       </c>
       <c r="Q4">
-        <v>15.27882574501111</v>
+        <v>49.901894637149</v>
       </c>
       <c r="R4">
-        <v>137.5094317051</v>
+        <v>449.117051734341</v>
       </c>
       <c r="S4">
-        <v>0.003472010886485043</v>
+        <v>0.007257905146632267</v>
       </c>
       <c r="T4">
-        <v>0.004339717495611721</v>
+        <v>0.01071988025280593</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>3.926606666666666</v>
+        <v>13.06236233333333</v>
       </c>
       <c r="H5">
-        <v>11.77982</v>
+        <v>39.187087</v>
       </c>
       <c r="I5">
-        <v>0.6634356070430003</v>
+        <v>0.7564485761176161</v>
       </c>
       <c r="J5">
-        <v>0.6634356070430003</v>
+        <v>0.7564485761176162</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.143744</v>
+        <v>2.685739</v>
       </c>
       <c r="N5">
-        <v>6.287488</v>
+        <v>5.371478</v>
       </c>
       <c r="O5">
-        <v>0.004228213386707701</v>
+        <v>0.006745286109419144</v>
       </c>
       <c r="P5">
-        <v>0.003523270751809443</v>
+        <v>0.006641830105981315</v>
       </c>
       <c r="Q5">
-        <v>12.34424614869333</v>
+        <v>35.08209595076433</v>
       </c>
       <c r="R5">
-        <v>74.06547689215999</v>
+        <v>210.492575704586</v>
       </c>
       <c r="S5">
-        <v>0.002805147314917764</v>
+        <v>0.005102462072976046</v>
       </c>
       <c r="T5">
-        <v>0.002337463270003546</v>
+        <v>0.005024202926484682</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>3.926606666666666</v>
+        <v>13.06236233333333</v>
       </c>
       <c r="H6">
-        <v>11.77982</v>
+        <v>39.187087</v>
       </c>
       <c r="I6">
-        <v>0.6634356070430003</v>
+        <v>0.7564485761176161</v>
       </c>
       <c r="J6">
-        <v>0.6634356070430003</v>
+        <v>0.7564485761176162</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>285.0064136666667</v>
+        <v>4.974860333333333</v>
       </c>
       <c r="N6">
-        <v>855.019241</v>
+        <v>14.924581</v>
       </c>
       <c r="O6">
-        <v>0.3833225394825255</v>
+        <v>0.01249445917966475</v>
       </c>
       <c r="P6">
-        <v>0.479120482464477</v>
+        <v>0.01845423762416168</v>
       </c>
       <c r="Q6">
-        <v>1119.108083946291</v>
+        <v>64.98342823172743</v>
       </c>
       <c r="R6">
-        <v>10071.97275551662</v>
+        <v>584.850854085547</v>
       </c>
       <c r="S6">
-        <v>0.2543098216748538</v>
+        <v>0.009451415855817076</v>
       </c>
       <c r="T6">
-        <v>0.3178655881305555</v>
+        <v>0.01395968177413324</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>3.926606666666666</v>
+        <v>13.06236233333333</v>
       </c>
       <c r="H7">
-        <v>11.77982</v>
+        <v>39.187087</v>
       </c>
       <c r="I7">
-        <v>0.6634356070430003</v>
+        <v>0.7564485761176161</v>
       </c>
       <c r="J7">
-        <v>0.6634356070430003</v>
+        <v>0.7564485761176162</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.062445333333333</v>
+        <v>1.040679</v>
       </c>
       <c r="N7">
-        <v>18.187336</v>
+        <v>3.122037</v>
       </c>
       <c r="O7">
-        <v>0.008153753141026633</v>
+        <v>0.002613685694352357</v>
       </c>
       <c r="P7">
-        <v>0.01019149602864148</v>
+        <v>0.003860397331719051</v>
       </c>
       <c r="Q7">
-        <v>23.80483826216889</v>
+        <v>13.593726170691</v>
       </c>
       <c r="R7">
-        <v>214.24354435952</v>
+        <v>122.343535536219</v>
       </c>
       <c r="S7">
-        <v>0.005409490164795775</v>
+        <v>0.001977118821911823</v>
       </c>
       <c r="T7">
-        <v>0.006761401354438087</v>
+        <v>0.002920192064827121</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.991988333333333</v>
+        <v>2.701385</v>
       </c>
       <c r="H8">
-        <v>5.975965</v>
+        <v>8.104155</v>
       </c>
       <c r="I8">
-        <v>0.3365643929569996</v>
+        <v>0.156438688856522</v>
       </c>
       <c r="J8">
-        <v>0.3365643929569996</v>
+        <v>0.1564386888565221</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>442.844055</v>
+        <v>383.075592</v>
       </c>
       <c r="N8">
-        <v>885.6881100000001</v>
+        <v>766.1511840000001</v>
       </c>
       <c r="O8">
-        <v>0.5956080271087346</v>
+        <v>0.9621018533726157</v>
       </c>
       <c r="P8">
-        <v>0.4963061580695479</v>
+        <v>0.9473455908456537</v>
       </c>
       <c r="Q8">
-        <v>882.1401910460251</v>
+        <v>1034.83465809492</v>
       </c>
       <c r="R8">
-        <v>5292.84114627615</v>
+        <v>6209.007948569521</v>
       </c>
       <c r="S8">
-        <v>0.2004604540841675</v>
+        <v>0.1505099524880418</v>
       </c>
       <c r="T8">
-        <v>0.1670389808114981</v>
+        <v>0.1482015021259013</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.991988333333333</v>
+        <v>2.701385</v>
       </c>
       <c r="H9">
-        <v>5.975965</v>
+        <v>8.104155</v>
       </c>
       <c r="I9">
-        <v>0.3365643929569996</v>
+        <v>0.156438688856522</v>
       </c>
       <c r="J9">
-        <v>0.3365643929569996</v>
+        <v>0.1564386888565221</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>2.568168333333333</v>
       </c>
       <c r="N9">
-        <v>7.704504999999999</v>
+        <v>7.704505</v>
       </c>
       <c r="O9">
-        <v>0.003454086505236687</v>
+        <v>0.006450005076994989</v>
       </c>
       <c r="P9">
-        <v>0.004317313547742694</v>
+        <v>0.009526616931258692</v>
       </c>
       <c r="Q9">
-        <v>5.11576135803611</v>
+        <v>6.937611413141667</v>
       </c>
       <c r="R9">
-        <v>46.04185222232499</v>
+        <v>62.438502718275</v>
       </c>
       <c r="S9">
-        <v>0.00116252252785595</v>
+        <v>0.001009030337363007</v>
       </c>
       <c r="T9">
-        <v>0.00145305401340105</v>
+        <v>0.001490331461964454</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.991988333333333</v>
+        <v>2.701385</v>
       </c>
       <c r="H10">
-        <v>5.975965</v>
+        <v>8.104155</v>
       </c>
       <c r="I10">
-        <v>0.3365643929569996</v>
+        <v>0.156438688856522</v>
       </c>
       <c r="J10">
-        <v>0.3365643929569996</v>
+        <v>0.1564386888565221</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.891101666666666</v>
+        <v>3.820281</v>
       </c>
       <c r="N10">
-        <v>11.673305</v>
+        <v>11.460843</v>
       </c>
       <c r="O10">
-        <v>0.005233380375768716</v>
+        <v>0.009594710566953034</v>
       </c>
       <c r="P10">
-        <v>0.006541279137781406</v>
+        <v>0.0141713271612255</v>
       </c>
       <c r="Q10">
-        <v>7.751029123813888</v>
+        <v>10.320049789185</v>
       </c>
       <c r="R10">
-        <v>69.75926211432498</v>
+        <v>92.88044810266501</v>
       </c>
       <c r="S10">
-        <v>0.001761369489283672</v>
+        <v>0.00150098394105195</v>
       </c>
       <c r="T10">
-        <v>0.002201561642169685</v>
+        <v>0.002216943840458936</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.991988333333333</v>
+        <v>2.701385</v>
       </c>
       <c r="H11">
-        <v>5.975965</v>
+        <v>8.104155</v>
       </c>
       <c r="I11">
-        <v>0.3365643929569996</v>
+        <v>0.156438688856522</v>
       </c>
       <c r="J11">
-        <v>0.3365643929569996</v>
+        <v>0.1564386888565221</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.143744</v>
+        <v>2.685739</v>
       </c>
       <c r="N11">
-        <v>6.287488</v>
+        <v>5.371478</v>
       </c>
       <c r="O11">
-        <v>0.004228213386707701</v>
+        <v>0.006745286109419144</v>
       </c>
       <c r="P11">
-        <v>0.003523270751809443</v>
+        <v>0.006641830105981315</v>
       </c>
       <c r="Q11">
-        <v>6.262301370986666</v>
+        <v>7.255215048515</v>
       </c>
       <c r="R11">
-        <v>37.57380822592</v>
+        <v>43.53129029109</v>
       </c>
       <c r="S11">
-        <v>0.001423066071789937</v>
+        <v>0.001055223714919641</v>
       </c>
       <c r="T11">
-        <v>0.001185807481805897</v>
+        <v>0.001039039193387492</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.991988333333333</v>
+        <v>2.701385</v>
       </c>
       <c r="H12">
-        <v>5.975965</v>
+        <v>8.104155</v>
       </c>
       <c r="I12">
-        <v>0.3365643929569996</v>
+        <v>0.156438688856522</v>
       </c>
       <c r="J12">
-        <v>0.3365643929569996</v>
+        <v>0.1564386888565221</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>285.0064136666667</v>
+        <v>4.974860333333333</v>
       </c>
       <c r="N12">
-        <v>855.019241</v>
+        <v>14.924581</v>
       </c>
       <c r="O12">
-        <v>0.3833225394825255</v>
+        <v>0.01249445917966475</v>
       </c>
       <c r="P12">
-        <v>0.479120482464477</v>
+        <v>0.01845423762416168</v>
       </c>
       <c r="Q12">
-        <v>567.7294509491738</v>
+        <v>13.43901308156167</v>
       </c>
       <c r="R12">
-        <v>5109.565058542565</v>
+        <v>120.951117734055</v>
       </c>
       <c r="S12">
-        <v>0.1290127178076717</v>
+        <v>0.001954616812038089</v>
       </c>
       <c r="T12">
-        <v>0.1612548943339215</v>
+        <v>0.002886956737770552</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.701385</v>
+      </c>
+      <c r="H13">
+        <v>8.104155</v>
+      </c>
+      <c r="I13">
+        <v>0.156438688856522</v>
+      </c>
+      <c r="J13">
+        <v>0.1564386888565221</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.040679</v>
+      </c>
+      <c r="N13">
+        <v>3.122037</v>
+      </c>
+      <c r="O13">
+        <v>0.002613685694352357</v>
+      </c>
+      <c r="P13">
+        <v>0.003860397331719051</v>
+      </c>
+      <c r="Q13">
+        <v>2.811274640415</v>
+      </c>
+      <c r="R13">
+        <v>25.301471763735</v>
+      </c>
+      <c r="S13">
+        <v>0.0004088815631075311</v>
+      </c>
+      <c r="T13">
+        <v>0.0006039154970393447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.504263666666667</v>
+      </c>
+      <c r="H14">
+        <v>4.512791</v>
+      </c>
+      <c r="I14">
+        <v>0.08711273502586178</v>
+      </c>
+      <c r="J14">
+        <v>0.0871127350258618</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>383.075592</v>
+      </c>
+      <c r="N14">
+        <v>766.1511840000001</v>
+      </c>
+      <c r="O14">
+        <v>0.9621018533726157</v>
+      </c>
+      <c r="P14">
+        <v>0.9473455908456537</v>
+      </c>
+      <c r="Q14">
+        <v>576.246694632424</v>
+      </c>
+      <c r="R14">
+        <v>3457.480167794544</v>
+      </c>
+      <c r="S14">
+        <v>0.08381132382073919</v>
+      </c>
+      <c r="T14">
+        <v>0.08252586543325592</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.504263666666667</v>
+      </c>
+      <c r="H15">
+        <v>4.512791</v>
+      </c>
+      <c r="I15">
+        <v>0.08711273502586178</v>
+      </c>
+      <c r="J15">
+        <v>0.0871127350258618</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.568168333333333</v>
+      </c>
+      <c r="N15">
+        <v>7.704505</v>
+      </c>
+      <c r="O15">
+        <v>0.006450005076994989</v>
+      </c>
+      <c r="P15">
+        <v>0.009526616931258692</v>
+      </c>
+      <c r="Q15">
+        <v>3.863202313717222</v>
+      </c>
+      <c r="R15">
+        <v>34.768820823455</v>
+      </c>
+      <c r="S15">
+        <v>0.0005618775831877277</v>
+      </c>
+      <c r="T15">
+        <v>0.0008298896564256271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.504263666666667</v>
+      </c>
+      <c r="H16">
+        <v>4.512791</v>
+      </c>
+      <c r="I16">
+        <v>0.08711273502586178</v>
+      </c>
+      <c r="J16">
+        <v>0.0871127350258618</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.820281</v>
+      </c>
+      <c r="N16">
+        <v>11.460843</v>
+      </c>
+      <c r="O16">
+        <v>0.009594710566953034</v>
+      </c>
+      <c r="P16">
+        <v>0.0141713271612255</v>
+      </c>
+      <c r="Q16">
+        <v>5.746709904757</v>
+      </c>
+      <c r="R16">
+        <v>51.720389142813</v>
+      </c>
+      <c r="S16">
+        <v>0.0008358214792688158</v>
+      </c>
+      <c r="T16">
+        <v>0.001234503067960635</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.504263666666667</v>
+      </c>
+      <c r="H17">
+        <v>4.512791</v>
+      </c>
+      <c r="I17">
+        <v>0.08711273502586178</v>
+      </c>
+      <c r="J17">
+        <v>0.0871127350258618</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.685739</v>
+      </c>
+      <c r="N17">
+        <v>5.371478</v>
+      </c>
+      <c r="O17">
+        <v>0.006745286109419144</v>
+      </c>
+      <c r="P17">
+        <v>0.006641830105981315</v>
+      </c>
+      <c r="Q17">
+        <v>4.040059595849667</v>
+      </c>
+      <c r="R17">
+        <v>24.240357575098</v>
+      </c>
+      <c r="S17">
+        <v>0.0005876003215234559</v>
+      </c>
+      <c r="T17">
+        <v>0.0005785879861091419</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.991988333333333</v>
-      </c>
-      <c r="H13">
-        <v>5.975965</v>
-      </c>
-      <c r="I13">
-        <v>0.3365643929569996</v>
-      </c>
-      <c r="J13">
-        <v>0.3365643929569996</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>6.062445333333333</v>
-      </c>
-      <c r="N13">
-        <v>18.187336</v>
-      </c>
-      <c r="O13">
-        <v>0.008153753141026633</v>
-      </c>
-      <c r="P13">
-        <v>0.01019149602864148</v>
-      </c>
-      <c r="Q13">
-        <v>12.07632037547111</v>
-      </c>
-      <c r="R13">
-        <v>108.68688337924</v>
-      </c>
-      <c r="S13">
-        <v>0.002744262976230858</v>
-      </c>
-      <c r="T13">
-        <v>0.003430094674203392</v>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.504263666666667</v>
+      </c>
+      <c r="H18">
+        <v>4.512791</v>
+      </c>
+      <c r="I18">
+        <v>0.08711273502586178</v>
+      </c>
+      <c r="J18">
+        <v>0.0871127350258618</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.974860333333333</v>
+      </c>
+      <c r="N18">
+        <v>14.924581</v>
+      </c>
+      <c r="O18">
+        <v>0.01249445917966475</v>
+      </c>
+      <c r="P18">
+        <v>0.01845423762416168</v>
+      </c>
+      <c r="Q18">
+        <v>7.483501646174555</v>
+      </c>
+      <c r="R18">
+        <v>67.35151481557099</v>
+      </c>
+      <c r="S18">
+        <v>0.001088426511809581</v>
+      </c>
+      <c r="T18">
+        <v>0.001607599112257886</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.504263666666667</v>
+      </c>
+      <c r="H19">
+        <v>4.512791</v>
+      </c>
+      <c r="I19">
+        <v>0.08711273502586178</v>
+      </c>
+      <c r="J19">
+        <v>0.0871127350258618</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.040679</v>
+      </c>
+      <c r="N19">
+        <v>3.122037</v>
+      </c>
+      <c r="O19">
+        <v>0.002613685694352357</v>
+      </c>
+      <c r="P19">
+        <v>0.003860397331719051</v>
+      </c>
+      <c r="Q19">
+        <v>1.565455608363</v>
+      </c>
+      <c r="R19">
+        <v>14.089100475267</v>
+      </c>
+      <c r="S19">
+        <v>0.0002276853093330024</v>
+      </c>
+      <c r="T19">
+        <v>0.0003362897698525856</v>
       </c>
     </row>
   </sheetData>
